--- a/Doc/PlanningEffectif.xlsx
+++ b/Doc/PlanningEffectif.xlsx
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -357,6 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,12 +369,10 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,14 +677,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="41" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="41" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -725,129 +726,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33" t="s">
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33" t="s">
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33" t="s">
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33" t="s">
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="30">
+      <c r="B4" s="31">
         <v>1503862</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <v>1503863</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="30">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31">
         <v>1503864</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="31">
         <v>1503865</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="30">
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="31">
         <v>1503868</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="30">
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="31">
         <v>1503869</v>
       </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="30">
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="31">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="30">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="31">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="30">
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="31">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="30">
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="31">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="33"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1381,13 +1382,13 @@
       <c r="AF16" s="22"/>
       <c r="AG16" s="23"/>
       <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
       <c r="AK16" s="22"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1498,12 +1499,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1518,6 +1513,12 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
